--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntn1-Adora2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntn1-Adora2b.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.234872</v>
+        <v>1.524740333333333</v>
       </c>
       <c r="H2">
-        <v>6.704616</v>
+        <v>4.574221</v>
       </c>
       <c r="I2">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390968</v>
       </c>
       <c r="J2">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390969</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -564,22 +564,22 @@
         <v>3.536313</v>
       </c>
       <c r="O2">
-        <v>0.04922155471087994</v>
+        <v>0.1304295628731768</v>
       </c>
       <c r="P2">
-        <v>0.04922155471087993</v>
+        <v>0.1304295628731768</v>
       </c>
       <c r="Q2">
-        <v>2.634402302312</v>
+        <v>1.797319687463667</v>
       </c>
       <c r="R2">
-        <v>23.709620720808</v>
+        <v>16.175877187173</v>
       </c>
       <c r="S2">
-        <v>0.01239981344045998</v>
+        <v>0.0268976786975485</v>
       </c>
       <c r="T2">
-        <v>0.01239981344045998</v>
+        <v>0.02689767869754851</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.234872</v>
+        <v>1.524740333333333</v>
       </c>
       <c r="H3">
-        <v>6.704616</v>
+        <v>4.574221</v>
       </c>
       <c r="I3">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390968</v>
       </c>
       <c r="J3">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390969</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.866667333333332</v>
+        <v>4.539335</v>
       </c>
       <c r="N3">
-        <v>20.600002</v>
+        <v>13.618005</v>
       </c>
       <c r="O3">
-        <v>0.2867291796532818</v>
+        <v>0.5022718405737094</v>
       </c>
       <c r="P3">
-        <v>0.2867291796532818</v>
+        <v>0.5022718405737095</v>
       </c>
       <c r="Q3">
-        <v>15.34612255658133</v>
+        <v>6.921307161011666</v>
       </c>
       <c r="R3">
-        <v>138.115103009232</v>
+        <v>62.291764449105</v>
       </c>
       <c r="S3">
-        <v>0.07223234529101423</v>
+        <v>0.1035804022414331</v>
       </c>
       <c r="T3">
-        <v>0.07223234529101423</v>
+        <v>0.1035804022414331</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.234872</v>
+        <v>1.524740333333333</v>
       </c>
       <c r="H4">
-        <v>6.704616</v>
+        <v>4.574221</v>
       </c>
       <c r="I4">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390968</v>
       </c>
       <c r="J4">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390969</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.706844</v>
+        <v>1.480144333333333</v>
       </c>
       <c r="N4">
-        <v>5.120532</v>
+        <v>4.440433</v>
       </c>
       <c r="O4">
-        <v>0.07127212607787022</v>
+        <v>0.1637761519293199</v>
       </c>
       <c r="P4">
-        <v>0.07127212607787022</v>
+        <v>0.1637761519293199</v>
       </c>
       <c r="Q4">
-        <v>3.814577863968</v>
+        <v>2.256835764188111</v>
       </c>
       <c r="R4">
-        <v>34.331200775712</v>
+        <v>20.311521877693</v>
       </c>
       <c r="S4">
-        <v>0.01795475726156181</v>
+        <v>0.03377453865423998</v>
       </c>
       <c r="T4">
-        <v>0.01795475726156181</v>
+        <v>0.03377453865424</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.234872</v>
+        <v>1.524740333333333</v>
       </c>
       <c r="H5">
-        <v>6.704616</v>
+        <v>4.574221</v>
       </c>
       <c r="I5">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390968</v>
       </c>
       <c r="J5">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390969</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.195986</v>
+        <v>1.839355666666667</v>
       </c>
       <c r="N5">
-        <v>42.587958</v>
+        <v>5.518067</v>
       </c>
       <c r="O5">
-        <v>0.5927771395579681</v>
+        <v>0.2035224446237938</v>
       </c>
       <c r="P5">
-        <v>0.5927771395579681</v>
+        <v>0.2035224446237938</v>
       </c>
       <c r="Q5">
-        <v>31.726211623792</v>
+        <v>2.804539772311889</v>
       </c>
       <c r="R5">
-        <v>285.535904614128</v>
+        <v>25.240857950807</v>
       </c>
       <c r="S5">
-        <v>0.1493314460598213</v>
+        <v>0.04197116974587525</v>
       </c>
       <c r="T5">
-        <v>0.1493314460598213</v>
+        <v>0.04197116974587527</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>9.556730999999999</v>
       </c>
       <c r="I6">
-        <v>0.3590833569140672</v>
+        <v>0.4308548451232278</v>
       </c>
       <c r="J6">
-        <v>0.3590833569140671</v>
+        <v>0.4308548451232279</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -812,10 +812,10 @@
         <v>3.536313</v>
       </c>
       <c r="O6">
-        <v>0.04922155471087994</v>
+        <v>0.1304295628731768</v>
       </c>
       <c r="P6">
-        <v>0.04922155471087993</v>
+        <v>0.1304295628731768</v>
       </c>
       <c r="Q6">
         <v>3.755065785867</v>
@@ -824,10 +824,10 @@
         <v>33.795592072803</v>
       </c>
       <c r="S6">
-        <v>0.01767464109811219</v>
+        <v>0.0561962091112129</v>
       </c>
       <c r="T6">
-        <v>0.01767464109811218</v>
+        <v>0.05619620911121291</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>9.556730999999999</v>
       </c>
       <c r="I7">
-        <v>0.3590833569140672</v>
+        <v>0.4308548451232278</v>
       </c>
       <c r="J7">
-        <v>0.3590833569140671</v>
+        <v>0.4308548451232279</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.866667333333332</v>
+        <v>4.539335</v>
       </c>
       <c r="N7">
-        <v>20.600002</v>
+        <v>13.618005</v>
       </c>
       <c r="O7">
-        <v>0.2867291796532818</v>
+        <v>0.5022718405737094</v>
       </c>
       <c r="P7">
-        <v>0.2867291796532818</v>
+        <v>0.5022718405737095</v>
       </c>
       <c r="Q7">
-        <v>21.874297523718</v>
+        <v>14.460401171295</v>
       </c>
       <c r="R7">
-        <v>196.8686777134619</v>
+        <v>130.143610541655</v>
       </c>
       <c r="S7">
-        <v>0.1029596763551171</v>
+        <v>0.2164062560801442</v>
       </c>
       <c r="T7">
-        <v>0.1029596763551171</v>
+        <v>0.2164062560801442</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>9.556730999999999</v>
       </c>
       <c r="I8">
-        <v>0.3590833569140672</v>
+        <v>0.4308548451232278</v>
       </c>
       <c r="J8">
-        <v>0.3590833569140671</v>
+        <v>0.4308548451232279</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.706844</v>
+        <v>1.480144333333333</v>
       </c>
       <c r="N8">
-        <v>5.120532</v>
+        <v>4.440433</v>
       </c>
       <c r="O8">
-        <v>0.07127212607787022</v>
+        <v>0.1637761519293199</v>
       </c>
       <c r="P8">
-        <v>0.07127212607787022</v>
+        <v>0.1637761519293199</v>
       </c>
       <c r="Q8">
-        <v>5.437282988988</v>
+        <v>4.715113744947</v>
       </c>
       <c r="R8">
-        <v>48.93554690089199</v>
+        <v>42.436023704523</v>
       </c>
       <c r="S8">
-        <v>0.02559263428644427</v>
+        <v>0.07056374857438535</v>
       </c>
       <c r="T8">
-        <v>0.02559263428644426</v>
+        <v>0.07056374857438538</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>9.556730999999999</v>
       </c>
       <c r="I9">
-        <v>0.3590833569140672</v>
+        <v>0.4308548451232278</v>
       </c>
       <c r="J9">
-        <v>0.3590833569140671</v>
+        <v>0.4308548451232279</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.195986</v>
+        <v>1.839355666666667</v>
       </c>
       <c r="N9">
-        <v>42.587958</v>
+        <v>5.518067</v>
       </c>
       <c r="O9">
-        <v>0.5927771395579681</v>
+        <v>0.2035224446237938</v>
       </c>
       <c r="P9">
-        <v>0.5927771395579681</v>
+        <v>0.2035224446237938</v>
       </c>
       <c r="Q9">
-        <v>45.22240649392199</v>
+        <v>5.859409106553001</v>
       </c>
       <c r="R9">
-        <v>407.0016584452979</v>
+        <v>52.734681958977</v>
       </c>
       <c r="S9">
-        <v>0.2128564051743937</v>
+        <v>0.08768863135748539</v>
       </c>
       <c r="T9">
-        <v>0.2128564051743936</v>
+        <v>0.08768863135748543</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.3858173333333333</v>
+        <v>0.2032796666666667</v>
       </c>
       <c r="H10">
-        <v>1.157452</v>
+        <v>0.609839</v>
       </c>
       <c r="I10">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="J10">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1060,22 +1060,22 @@
         <v>3.536313</v>
       </c>
       <c r="O10">
-        <v>0.04922155471087994</v>
+        <v>0.1304295628731768</v>
       </c>
       <c r="P10">
-        <v>0.04922155471087993</v>
+        <v>0.1304295628731768</v>
       </c>
       <c r="Q10">
-        <v>0.4547902838306666</v>
+        <v>0.2396201759563333</v>
       </c>
       <c r="R10">
-        <v>4.093112554476</v>
+        <v>2.156581583607</v>
       </c>
       <c r="S10">
-        <v>0.002140642934104993</v>
+        <v>0.003586021199945145</v>
       </c>
       <c r="T10">
-        <v>0.002140642934104993</v>
+        <v>0.003586021199945146</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.3858173333333333</v>
+        <v>0.2032796666666667</v>
       </c>
       <c r="H11">
-        <v>1.157452</v>
+        <v>0.609839</v>
       </c>
       <c r="I11">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="J11">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.866667333333332</v>
+        <v>4.539335</v>
       </c>
       <c r="N11">
-        <v>20.600002</v>
+        <v>13.618005</v>
       </c>
       <c r="O11">
-        <v>0.2867291796532818</v>
+        <v>0.5022718405737094</v>
       </c>
       <c r="P11">
-        <v>0.2867291796532818</v>
+        <v>0.5022718405737095</v>
       </c>
       <c r="Q11">
-        <v>2.649279279433777</v>
+        <v>0.9227545056883334</v>
       </c>
       <c r="R11">
-        <v>23.84351351490399</v>
+        <v>8.304790551195</v>
       </c>
       <c r="S11">
-        <v>0.01246983757485514</v>
+        <v>0.0138094265499007</v>
       </c>
       <c r="T11">
-        <v>0.01246983757485514</v>
+        <v>0.0138094265499007</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.3858173333333333</v>
+        <v>0.2032796666666667</v>
       </c>
       <c r="H12">
-        <v>1.157452</v>
+        <v>0.609839</v>
       </c>
       <c r="I12">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="J12">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.706844</v>
+        <v>1.480144333333333</v>
       </c>
       <c r="N12">
-        <v>5.120532</v>
+        <v>4.440433</v>
       </c>
       <c r="O12">
-        <v>0.07127212607787022</v>
+        <v>0.1637761519293199</v>
       </c>
       <c r="P12">
-        <v>0.07127212607787022</v>
+        <v>0.1637761519293199</v>
       </c>
       <c r="Q12">
-        <v>0.658530000496</v>
+        <v>0.3008832466985555</v>
       </c>
       <c r="R12">
-        <v>5.926770004463999</v>
+        <v>2.707949220287</v>
       </c>
       <c r="S12">
-        <v>0.003099621171728438</v>
+        <v>0.004502849966882462</v>
       </c>
       <c r="T12">
-        <v>0.003099621171728438</v>
+        <v>0.004502849966882464</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.3858173333333333</v>
+        <v>0.2032796666666667</v>
       </c>
       <c r="H13">
-        <v>1.157452</v>
+        <v>0.609839</v>
       </c>
       <c r="I13">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="J13">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.195986</v>
+        <v>1.839355666666667</v>
       </c>
       <c r="N13">
-        <v>42.587958</v>
+        <v>5.518067</v>
       </c>
       <c r="O13">
-        <v>0.5927771395579681</v>
+        <v>0.2035224446237938</v>
       </c>
       <c r="P13">
-        <v>0.5927771395579681</v>
+        <v>0.2035224446237938</v>
       </c>
       <c r="Q13">
-        <v>5.477057462557332</v>
+        <v>0.3739036068014445</v>
       </c>
       <c r="R13">
-        <v>49.293517163016</v>
+        <v>3.365132461213</v>
       </c>
       <c r="S13">
-        <v>0.02577984792937169</v>
+        <v>0.005595631734158631</v>
       </c>
       <c r="T13">
-        <v>0.02577984792937169</v>
+        <v>0.005595631734158633</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.766917</v>
+        <v>2.061212666666667</v>
       </c>
       <c r="H14">
-        <v>8.300751</v>
+        <v>6.183638</v>
       </c>
       <c r="I14">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683977</v>
       </c>
       <c r="J14">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683978</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1308,22 +1308,22 @@
         <v>3.536313</v>
       </c>
       <c r="O14">
-        <v>0.04922155471087994</v>
+        <v>0.1304295628731768</v>
       </c>
       <c r="P14">
-        <v>0.04922155471087993</v>
+        <v>0.1304295628731768</v>
       </c>
       <c r="Q14">
-        <v>3.261561519007</v>
+        <v>2.429697716299333</v>
       </c>
       <c r="R14">
-        <v>29.354053671063</v>
+        <v>21.867279446694</v>
       </c>
       <c r="S14">
-        <v>0.0153517761219601</v>
+        <v>0.03636149370700528</v>
       </c>
       <c r="T14">
-        <v>0.01535177612196009</v>
+        <v>0.0363614937070053</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.766917</v>
+        <v>2.061212666666667</v>
       </c>
       <c r="H15">
-        <v>8.300751</v>
+        <v>6.183638</v>
       </c>
       <c r="I15">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683977</v>
       </c>
       <c r="J15">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683978</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.866667333333332</v>
+        <v>4.539335</v>
       </c>
       <c r="N15">
-        <v>20.600002</v>
+        <v>13.618005</v>
       </c>
       <c r="O15">
-        <v>0.2867291796532818</v>
+        <v>0.5022718405737094</v>
       </c>
       <c r="P15">
-        <v>0.2867291796532818</v>
+        <v>0.5022718405737095</v>
       </c>
       <c r="Q15">
-        <v>18.99949857794466</v>
+        <v>9.356534800243333</v>
       </c>
       <c r="R15">
-        <v>170.995487201502</v>
+        <v>84.20881320219</v>
       </c>
       <c r="S15">
-        <v>0.08942834495021515</v>
+        <v>0.1400246536744532</v>
       </c>
       <c r="T15">
-        <v>0.08942834495021514</v>
+        <v>0.1400246536744532</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.766917</v>
+        <v>2.061212666666667</v>
       </c>
       <c r="H16">
-        <v>8.300751</v>
+        <v>6.183638</v>
       </c>
       <c r="I16">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683977</v>
       </c>
       <c r="J16">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683978</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.706844</v>
+        <v>1.480144333333333</v>
       </c>
       <c r="N16">
-        <v>5.120532</v>
+        <v>4.440433</v>
       </c>
       <c r="O16">
-        <v>0.07127212607787022</v>
+        <v>0.1637761519293199</v>
       </c>
       <c r="P16">
-        <v>0.07127212607787022</v>
+        <v>0.1637761519293199</v>
       </c>
       <c r="Q16">
-        <v>4.722695679948</v>
+        <v>3.050892248361555</v>
       </c>
       <c r="R16">
-        <v>42.504261119532</v>
+        <v>27.458030235254</v>
       </c>
       <c r="S16">
-        <v>0.02222915813428635</v>
+        <v>0.04565794277426194</v>
       </c>
       <c r="T16">
-        <v>0.02222915813428635</v>
+        <v>0.04565794277426197</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.766917</v>
+        <v>2.061212666666667</v>
       </c>
       <c r="H17">
-        <v>8.300751</v>
+        <v>6.183638</v>
       </c>
       <c r="I17">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683977</v>
       </c>
       <c r="J17">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683978</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.195986</v>
+        <v>1.839355666666667</v>
       </c>
       <c r="N17">
-        <v>42.587958</v>
+        <v>5.518067</v>
       </c>
       <c r="O17">
-        <v>0.5927771395579681</v>
+        <v>0.2035224446237938</v>
       </c>
       <c r="P17">
-        <v>0.5927771395579681</v>
+        <v>0.2035224446237938</v>
       </c>
       <c r="Q17">
-        <v>39.279114995162</v>
+        <v>3.791303198638444</v>
       </c>
       <c r="R17">
-        <v>353.512034956458</v>
+        <v>34.121728787746</v>
       </c>
       <c r="S17">
-        <v>0.1848820499507366</v>
+        <v>0.05673851791267728</v>
       </c>
       <c r="T17">
-        <v>0.1848820499507366</v>
+        <v>0.05673851791267731</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2982303333333333</v>
+        <v>0.4188103333333333</v>
       </c>
       <c r="H18">
-        <v>0.894691</v>
+        <v>1.256431</v>
       </c>
       <c r="I18">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839063</v>
       </c>
       <c r="J18">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839064</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>3.536313</v>
       </c>
       <c r="O18">
-        <v>0.04922155471087994</v>
+        <v>0.1304295628731768</v>
       </c>
       <c r="P18">
-        <v>0.04922155471087993</v>
+        <v>0.1304295628731768</v>
       </c>
       <c r="Q18">
-        <v>0.3515452682536667</v>
+        <v>0.4936814754336667</v>
       </c>
       <c r="R18">
-        <v>3.163907414283</v>
+        <v>4.443133278903</v>
       </c>
       <c r="S18">
-        <v>0.001654681116242687</v>
+        <v>0.007388160157464968</v>
       </c>
       <c r="T18">
-        <v>0.001654681116242687</v>
+        <v>0.007388160157464969</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2982303333333333</v>
+        <v>0.4188103333333333</v>
       </c>
       <c r="H19">
-        <v>0.894691</v>
+        <v>1.256431</v>
       </c>
       <c r="I19">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839063</v>
       </c>
       <c r="J19">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839064</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.866667333333332</v>
+        <v>4.539335</v>
       </c>
       <c r="N19">
-        <v>20.600002</v>
+        <v>13.618005</v>
       </c>
       <c r="O19">
-        <v>0.2867291796532818</v>
+        <v>0.5022718405737094</v>
       </c>
       <c r="P19">
-        <v>0.2867291796532818</v>
+        <v>0.5022718405737095</v>
       </c>
       <c r="Q19">
-        <v>2.047848487709111</v>
+        <v>1.901120404461667</v>
       </c>
       <c r="R19">
-        <v>18.430636389382</v>
+        <v>17.110083640155</v>
       </c>
       <c r="S19">
-        <v>0.009638975482080229</v>
+        <v>0.02845110202777829</v>
       </c>
       <c r="T19">
-        <v>0.009638975482080229</v>
+        <v>0.0284511020277783</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.2982303333333333</v>
+        <v>0.4188103333333333</v>
       </c>
       <c r="H20">
-        <v>0.894691</v>
+        <v>1.256431</v>
       </c>
       <c r="I20">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839063</v>
       </c>
       <c r="J20">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839064</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.706844</v>
+        <v>1.480144333333333</v>
       </c>
       <c r="N20">
-        <v>5.120532</v>
+        <v>4.440433</v>
       </c>
       <c r="O20">
-        <v>0.07127212607787022</v>
+        <v>0.1637761519293199</v>
       </c>
       <c r="P20">
-        <v>0.07127212607787022</v>
+        <v>0.1637761519293199</v>
       </c>
       <c r="Q20">
-        <v>0.509032655068</v>
+        <v>0.6198997416247778</v>
       </c>
       <c r="R20">
-        <v>4.581293895612</v>
+        <v>5.579097674623</v>
       </c>
       <c r="S20">
-        <v>0.002395955223849359</v>
+        <v>0.00927707195955014</v>
       </c>
       <c r="T20">
-        <v>0.002395955223849359</v>
+        <v>0.009277071959550146</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.2982303333333333</v>
+        <v>0.4188103333333333</v>
       </c>
       <c r="H21">
-        <v>0.894691</v>
+        <v>1.256431</v>
       </c>
       <c r="I21">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839063</v>
       </c>
       <c r="J21">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839064</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.195986</v>
+        <v>1.839355666666667</v>
       </c>
       <c r="N21">
-        <v>42.587958</v>
+        <v>5.518067</v>
       </c>
       <c r="O21">
-        <v>0.5927771395579681</v>
+        <v>0.2035224446237938</v>
       </c>
       <c r="P21">
-        <v>0.5927771395579681</v>
+        <v>0.2035224446237938</v>
       </c>
       <c r="Q21">
-        <v>4.233673636775333</v>
+        <v>0.7703411598752223</v>
       </c>
       <c r="R21">
-        <v>38.103062730978</v>
+        <v>6.933070438877</v>
       </c>
       <c r="S21">
-        <v>0.01992739044364474</v>
+        <v>0.01152849387359723</v>
       </c>
       <c r="T21">
-        <v>0.01992739044364474</v>
+        <v>0.01152849387359724</v>
       </c>
     </row>
   </sheetData>
